--- a/results/cifar100_training/results_lwf_cifar100.xlsx
+++ b/results/cifar100_training/results_lwf_cifar100.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.432188212386961</v>
+        <v>3.467086612650778</v>
       </c>
       <c r="D3">
-        <v>3.209173917770386</v>
+        <v>3.386621236801147</v>
       </c>
       <c r="E3">
-        <v>8.399999618530273</v>
+        <v>7.66</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>3.234743579101563</v>
+        <v>3.352398889160156</v>
       </c>
       <c r="J3">
-        <v>16.79999923706055</v>
+        <v>15.32</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -493,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.807285942682406</v>
+        <v>2.802403160956054</v>
       </c>
       <c r="D4">
-        <v>3.013009707132975</v>
+        <v>2.744082927703857</v>
       </c>
       <c r="E4">
-        <v>10.85999965667725</v>
+        <v>13.8</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>9.807928515624999</v>
+        <v>9.8893349609375</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -522,13 +522,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.454104218056532</v>
+        <v>2.450327898548768</v>
       </c>
       <c r="D5">
-        <v>2.31640617052714</v>
+        <v>2.728504180908203</v>
       </c>
       <c r="E5">
-        <v>17.17000007629395</v>
+        <v>13.56</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>3.041310498046875</v>
+        <v>2.711713592529297</v>
       </c>
       <c r="J5">
-        <v>21.71999931335449</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -551,13 +551,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.182187050338683</v>
+        <v>2.193317127438773</v>
       </c>
       <c r="D6">
-        <v>2.323430856068929</v>
+        <v>2.5376877784729</v>
       </c>
       <c r="E6">
-        <v>17.27000045776367</v>
+        <v>16.06</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>11.45681938476563</v>
+        <v>10.47947670898438</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.965990861256917</v>
+        <v>1.997159737401304</v>
       </c>
       <c r="D7">
-        <v>2.129456996917725</v>
+        <v>2.401345491409302</v>
       </c>
       <c r="E7">
-        <v>19.72999954223633</v>
+        <v>17.28</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>2.401561755371094</v>
+        <v>2.722322711181641</v>
       </c>
       <c r="J7">
-        <v>34.34000015258789</v>
+        <v>27.12</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -609,13 +609,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.798816626634055</v>
+        <v>1.826972054169241</v>
       </c>
       <c r="D8">
-        <v>1.921867489814758</v>
+        <v>2.217043161392212</v>
       </c>
       <c r="E8">
-        <v>21.70999908447266</v>
+        <v>20.09</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>11.72107431640625</v>
+        <v>12.01339506835937</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.663073274178233</v>
+        <v>1.693918445469004</v>
       </c>
       <c r="D9">
-        <v>2.117627859115601</v>
+        <v>2.513461351394653</v>
       </c>
       <c r="E9">
-        <v>20.90999984741211</v>
+        <v>17.7</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -653,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>2.403398773193359</v>
+        <v>2.513261865234375</v>
       </c>
       <c r="J9">
-        <v>34.54000091552734</v>
+        <v>32.12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -667,13 +667,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.540571850489795</v>
+        <v>1.561980433168664</v>
       </c>
       <c r="D10">
-        <v>2.160167892773946</v>
+        <v>2.362669467926025</v>
       </c>
       <c r="E10">
-        <v>21.46999931335449</v>
+        <v>19.3</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>12.93899833984375</v>
+        <v>12.21742431640625</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.432189738847376</v>
+        <v>1.449222616389789</v>
       </c>
       <c r="D11">
-        <v>1.838595708211263</v>
+        <v>2.250141620635986</v>
       </c>
       <c r="E11">
-        <v>24.59000015258789</v>
+        <v>20.98</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>2.142466717529297</v>
+        <v>2.398931506347656</v>
       </c>
       <c r="J11">
-        <v>39.45999908447266</v>
+        <v>34.56</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -725,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.315853284626472</v>
+        <v>1.338387211867138</v>
       </c>
       <c r="D12">
-        <v>1.893372058868408</v>
+        <v>2.362236499786377</v>
       </c>
       <c r="E12">
-        <v>24.21999931335449</v>
+        <v>19.87</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>12.12970415039062</v>
+        <v>12.4353232421875</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.232668184652561</v>
+        <v>1.243395437181523</v>
       </c>
       <c r="D13">
-        <v>1.904538949330648</v>
+        <v>2.596122264862061</v>
       </c>
       <c r="E13">
-        <v>24.29999923706055</v>
+        <v>19.79</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -769,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>1.992658032226563</v>
+        <v>2.166542919921875</v>
       </c>
       <c r="J13">
-        <v>43.41999816894531</v>
+        <v>40.18</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -783,13 +783,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.140410770245684</v>
+        <v>1.536973346651128</v>
       </c>
       <c r="D14">
-        <v>2.201168378194173</v>
+        <v>1.889346837997437</v>
       </c>
       <c r="E14">
-        <v>22.47999954223633</v>
+        <v>23.86</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -798,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>12.94065942382812</v>
+        <v>12.62002783203125</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -812,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.058505624774995</v>
+        <v>1.44268844190952</v>
       </c>
       <c r="D15">
-        <v>1.877942681312561</v>
+        <v>1.840680718421936</v>
       </c>
       <c r="E15">
-        <v>24.59000015258789</v>
+        <v>24.32</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>2.093009655761719</v>
+        <v>2.475680865478516</v>
       </c>
       <c r="J15">
-        <v>41.81999969482422</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -841,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9817375400202061</v>
+        <v>1.383550327436059</v>
       </c>
       <c r="D16">
-        <v>1.908518115679423</v>
+        <v>1.892025947570801</v>
       </c>
       <c r="E16">
-        <v>24.82999992370605</v>
+        <v>24.36</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -856,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>13.49479047851563</v>
+        <v>13.57435161132812</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.148917891145722</v>
+        <v>1.331627674862347</v>
       </c>
       <c r="D17">
-        <v>1.602937897046407</v>
+        <v>1.855547428131104</v>
       </c>
       <c r="E17">
-        <v>27.97999954223633</v>
+        <v>24.47</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -885,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>2.046526751708984</v>
+        <v>2.300842919921875</v>
       </c>
       <c r="J17">
-        <v>42.93999862670898</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -899,13 +899,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.067388680892262</v>
+        <v>1.283658368397603</v>
       </c>
       <c r="D18">
-        <v>1.579235474268595</v>
+        <v>1.866767168045044</v>
       </c>
       <c r="E18">
-        <v>27.42000007629395</v>
+        <v>24.55</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -914,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>13.38203598632813</v>
+        <v>14.09168852539062</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -928,13 +928,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.017014872252457</v>
+        <v>1.22758299903532</v>
       </c>
       <c r="D19">
-        <v>1.64185372988383</v>
+        <v>1.849352240562439</v>
       </c>
       <c r="E19">
-        <v>27.88999938964844</v>
+        <v>24.62</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>1.791019970703125</v>
+        <v>2.1465294921875</v>
       </c>
       <c r="J19">
-        <v>49.18000030517578</v>
+        <v>41.96</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -957,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9738915470557484</v>
+        <v>1.173643800537143</v>
       </c>
       <c r="D20">
-        <v>1.644327481587728</v>
+        <v>1.892006397247314</v>
       </c>
       <c r="E20">
-        <v>27.46999931335449</v>
+        <v>24.85</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -972,7 +972,7 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>13.26322778320312</v>
+        <v>14.23860234375</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9349270385455309</v>
+        <v>1.361636061584</v>
       </c>
       <c r="D21">
-        <v>1.675303339958191</v>
+        <v>1.798861503601074</v>
       </c>
       <c r="E21">
-        <v>27.67999839782715</v>
+        <v>25.1</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1001,10 +1001,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>1.870949945068359</v>
+        <v>2.288126641845703</v>
       </c>
       <c r="J21">
-        <v>48.43999862670898</v>
+        <v>39.74</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1015,13 +1015,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8953773345404524</v>
+        <v>1.339568276320938</v>
       </c>
       <c r="D22">
-        <v>1.676985661188761</v>
+        <v>1.810027003288269</v>
       </c>
       <c r="E22">
-        <v>27.51000022888184</v>
+        <v>25.11</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>14.76532358398437</v>
+        <v>13.89842153320313</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.8508275151252747</v>
+        <v>1.329236191985881</v>
       </c>
       <c r="D23">
-        <v>1.708252588907878</v>
+        <v>1.802338480949402</v>
       </c>
       <c r="E23">
-        <v>27.40999984741211</v>
+        <v>25.09</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>1.878890240478516</v>
+        <v>2.492141192626953</v>
       </c>
       <c r="J23">
-        <v>48.59999847412109</v>
+        <v>39.58</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1073,13 +1073,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9922822951301327</v>
+        <v>1.314563274383545</v>
       </c>
       <c r="D24">
-        <v>1.590950171152751</v>
+        <v>1.802266001701355</v>
       </c>
       <c r="E24">
-        <v>28.26000022888184</v>
+        <v>25.18</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>14.44853745117187</v>
+        <v>14.93166040039062</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9771540586541339</v>
+        <v>1.300700953576417</v>
       </c>
       <c r="D25">
-        <v>1.615998983383179</v>
+        <v>1.796920657157898</v>
       </c>
       <c r="E25">
-        <v>28.13999938964844</v>
+        <v>25.07</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>2.135091467285156</v>
+        <v>1.849489422607422</v>
       </c>
       <c r="J25">
-        <v>44.95999908447266</v>
+        <v>47.72</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1131,13 +1131,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9618778126995738</v>
+        <v>1.286971388664921</v>
       </c>
       <c r="D26">
-        <v>1.564653277397156</v>
+        <v>1.808214426040649</v>
       </c>
       <c r="E26">
-        <v>28.28999900817871</v>
+        <v>25.23</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1146,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>15.27487700195313</v>
+        <v>12.64365688476562</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1160,13 +1160,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.953825604140274</v>
+        <v>1.27562380153521</v>
       </c>
       <c r="D27">
-        <v>1.633332371711731</v>
+        <v>1.783404588699341</v>
       </c>
       <c r="E27">
-        <v>28.26000022888184</v>
+        <v>25.3</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>1.876003552246094</v>
+        <v>1.805050329589844</v>
       </c>
       <c r="J27">
-        <v>49.18000030517578</v>
+        <v>48.64</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1189,13 +1189,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9427825188249107</v>
+        <v>1.262470581890208</v>
       </c>
       <c r="D28">
-        <v>1.532824834187825</v>
+        <v>1.812989354133606</v>
       </c>
       <c r="E28">
-        <v>28.40999984741211</v>
+        <v>25.27</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1204,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>14.805612109375</v>
+        <v>12.67456484375</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1218,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.9315351848679829</v>
+        <v>1.245086899900858</v>
       </c>
       <c r="D29">
-        <v>1.594523787498474</v>
+        <v>1.809573650360107</v>
       </c>
       <c r="E29">
-        <v>28.22999954223633</v>
+        <v>25.26</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1233,10 +1233,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>1.925585650634766</v>
+        <v>1.840321099853516</v>
       </c>
       <c r="J29">
-        <v>49.65999984741211</v>
+        <v>48.72</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1247,13 +1247,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.9212663173675537</v>
+        <v>1.233773585969368</v>
       </c>
       <c r="D30">
-        <v>1.577704270680745</v>
+        <v>1.814071416854858</v>
       </c>
       <c r="E30">
-        <v>28.26999855041504</v>
+        <v>25.25</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1262,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>14.9680359375</v>
+        <v>12.93841235351563</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1276,13 +1276,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.9087766709366465</v>
+        <v>1.222221717370295</v>
       </c>
       <c r="D31">
-        <v>1.58415408929189</v>
+        <v>1.817751288414001</v>
       </c>
       <c r="E31">
-        <v>28.23999977111816</v>
+        <v>25.13</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>1.548381951904297</v>
+        <v>1.808103607177734</v>
       </c>
       <c r="J31">
-        <v>55.95999908447266</v>
+        <v>48.94</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1305,13 +1305,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.8996275503460954</v>
+        <v>1.20792778719843</v>
       </c>
       <c r="D32">
-        <v>1.613824486732483</v>
+        <v>1.805228471755981</v>
       </c>
       <c r="E32">
-        <v>28</v>
+        <v>25.13</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1320,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>13.57250825195312</v>
+        <v>12.82641000976563</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1334,13 +1334,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.8899197878876353</v>
+        <v>1.25610694632066</v>
       </c>
       <c r="D33">
-        <v>1.601181308428447</v>
+        <v>1.819824695587158</v>
       </c>
       <c r="E33">
-        <v>28.07999992370605</v>
+        <v>25.3</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>1.578940002441406</v>
+        <v>1.812915484619141</v>
       </c>
       <c r="J33">
-        <v>54.84000015258789</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1363,13 +1363,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.9256537173821674</v>
+        <v>1.250436431538742</v>
       </c>
       <c r="D34">
-        <v>1.590244134267171</v>
+        <v>1.789815425872803</v>
       </c>
       <c r="E34">
-        <v>28.28999900817871</v>
+        <v>25.24</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1378,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>13.7878998046875</v>
+        <v>13.305484765625</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.9200860731970004</v>
+        <v>1.250003899093223</v>
       </c>
       <c r="D35">
-        <v>1.572540283203125</v>
+        <v>1.789848446846008</v>
       </c>
       <c r="E35">
-        <v>28.3799991607666</v>
+        <v>25.51</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1407,10 +1407,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>1.553624176025391</v>
+        <v>1.8065919921875</v>
       </c>
       <c r="J35">
-        <v>55.77999877929688</v>
+        <v>49.24</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1421,13 +1421,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.9182852913693684</v>
+        <v>1.245416571608687</v>
       </c>
       <c r="D36">
-        <v>1.593559304873149</v>
+        <v>1.795127391815186</v>
       </c>
       <c r="E36">
-        <v>28.28999900817871</v>
+        <v>25.33</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1436,7 +1436,7 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>13.99529340820312</v>
+        <v>12.95680561523437</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.916737571964419</v>
+        <v>1.240160179349173</v>
       </c>
       <c r="D37">
-        <v>1.617503801981608</v>
+        <v>1.800675630569458</v>
       </c>
       <c r="E37">
-        <v>28.29999923706055</v>
+        <v>25.36</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1465,10 +1465,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>1.579735821533203</v>
+        <v>1.804978509521484</v>
       </c>
       <c r="J37">
-        <v>54.93999862670898</v>
+        <v>49.7</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1479,13 +1479,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.9153471535783473</v>
+        <v>1.252877081389976</v>
       </c>
       <c r="D38">
-        <v>1.58264942963918</v>
+        <v>1.80998432636261</v>
       </c>
       <c r="E38">
-        <v>28.25</v>
+        <v>25.27</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1494,7 +1494,7 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>14.1207283203125</v>
+        <v>13.47785908203125</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.9249842564264933</v>
+        <v>1.252027975774444</v>
       </c>
       <c r="D39">
-        <v>1.644216815630595</v>
+        <v>1.797507762908936</v>
       </c>
       <c r="E39">
-        <v>28.18999862670898</v>
+        <v>25.43</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>1.588144396972656</v>
+        <v>1.760842456054688</v>
       </c>
       <c r="J39">
-        <v>55.3599967956543</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1537,13 +1537,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.9228439490969588</v>
+        <v>1.252668853354665</v>
       </c>
       <c r="D40">
-        <v>1.588449557622274</v>
+        <v>1.79014253616333</v>
       </c>
       <c r="E40">
-        <v>28.32999992370605</v>
+        <v>25.44</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1552,7 +1552,7 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>13.98253588867187</v>
+        <v>12.77955458984375</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -1566,13 +1566,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.9224163560363335</v>
+        <v>1.249997787770972</v>
       </c>
       <c r="D41">
-        <v>1.573008894920349</v>
+        <v>1.807884573936462</v>
       </c>
       <c r="E41">
-        <v>28.25</v>
+        <v>25.32</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>1.592755072021484</v>
+        <v>1.758491693115234</v>
       </c>
       <c r="J41">
-        <v>55.02000045776367</v>
+        <v>50.22</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1595,13 +1595,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.9211121686105805</v>
+        <v>1.249364821256789</v>
       </c>
       <c r="D42">
-        <v>1.583679556846619</v>
+        <v>1.802457451820374</v>
       </c>
       <c r="E42">
-        <v>28.30999946594238</v>
+        <v>25.31</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1610,28 +1610,13 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>14.0458013671875</v>
+        <v>12.76865375976563</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>41</v>
-      </c>
-      <c r="C43">
-        <v>0.9205749165721056</v>
-      </c>
-      <c r="D43">
-        <v>1.618128577868144</v>
-      </c>
-      <c r="E43">
-        <v>28.28999900817871</v>
-      </c>
       <c r="G43">
         <v>0</v>
       </c>
@@ -1639,10 +1624,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>1.616093975830078</v>
+        <v>1.756317761230469</v>
       </c>
       <c r="J43">
-        <v>54.81999969482422</v>
+        <v>50.18</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1653,7 +1638,7 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>14.20039951171875</v>
+        <v>12.8456302734375</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -1667,10 +1652,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>1.523037475585937</v>
+        <v>1.753663641357422</v>
       </c>
       <c r="J45">
-        <v>56.52000045776367</v>
+        <v>50.36</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1681,7 +1666,7 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>13.79184985351563</v>
+        <v>12.7889203125</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -1695,10 +1680,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>1.526908343505859</v>
+        <v>1.752693731689453</v>
       </c>
       <c r="J47">
-        <v>56.27999877929688</v>
+        <v>50.14</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1709,7 +1694,7 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>13.82828159179688</v>
+        <v>12.87350322265625</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -1723,10 +1708,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>1.52254677734375</v>
+        <v>1.754559124755859</v>
       </c>
       <c r="J49">
-        <v>56.57999801635742</v>
+        <v>50.46</v>
       </c>
     </row>
     <row r="50" spans="7:10">
@@ -1737,7 +1722,7 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>13.85161069335937</v>
+        <v>12.91732612304687</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -1751,10 +1736,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>1.524091864013672</v>
+        <v>1.751433538818359</v>
       </c>
       <c r="J51">
-        <v>56.52000045776367</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="52" spans="7:10">
@@ -1765,7 +1750,7 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>13.90977768554687</v>
+        <v>12.9240353515625</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -1779,10 +1764,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>1.527639080810547</v>
+        <v>1.752133148193359</v>
       </c>
       <c r="J53">
-        <v>56.81999969482422</v>
+        <v>50.54</v>
       </c>
     </row>
     <row r="54" spans="7:10">
@@ -1793,7 +1778,7 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>13.93465473632813</v>
+        <v>12.92119291992188</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -1807,10 +1792,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>1.529325592041016</v>
+        <v>1.750065679931641</v>
       </c>
       <c r="J55">
-        <v>56.45999908447266</v>
+        <v>50.52</v>
       </c>
     </row>
     <row r="56" spans="7:10">
@@ -1821,7 +1806,7 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>13.8589359375</v>
+        <v>12.99309609375</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -1835,10 +1820,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>1.532974505615234</v>
+        <v>1.752074169921875</v>
       </c>
       <c r="J57">
-        <v>56.53999710083008</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="58" spans="7:10">
@@ -1849,7 +1834,7 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>13.96719838867187</v>
+        <v>12.98556494140625</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -1863,10 +1848,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>1.535888708496094</v>
+        <v>1.752324145507812</v>
       </c>
       <c r="J59">
-        <v>56.47999954223633</v>
+        <v>50.26</v>
       </c>
     </row>
     <row r="60" spans="7:10">
@@ -1877,7 +1862,7 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>13.94439008789062</v>
+        <v>13.01887055664062</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -1891,10 +1876,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>1.543555303955078</v>
+        <v>1.751198706054687</v>
       </c>
       <c r="J61">
-        <v>56</v>
+        <v>50.26</v>
       </c>
     </row>
     <row r="62" spans="7:10">
@@ -1905,7 +1890,7 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>14.0783228515625</v>
+        <v>13.08153295898438</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -1919,10 +1904,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>1.536418188476562</v>
+        <v>1.746933135986328</v>
       </c>
       <c r="J63">
-        <v>56.15999984741211</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="64" spans="7:10">
@@ -1933,7 +1918,7 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>14.05948403320313</v>
+        <v>12.97221904296875</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -1947,10 +1932,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>1.524417416381836</v>
+        <v>1.745858020019531</v>
       </c>
       <c r="J65">
-        <v>56.57999801635742</v>
+        <v>50.48</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -1961,7 +1946,7 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>13.93101010742187</v>
+        <v>12.95066997070312</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -1975,10 +1960,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>1.52530087890625</v>
+        <v>1.746038397216797</v>
       </c>
       <c r="J67">
-        <v>56.7599983215332</v>
+        <v>51.02</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -1989,7 +1974,7 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>13.9260005859375</v>
+        <v>12.973930859375</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -2003,10 +1988,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>1.525270776367188</v>
+        <v>1.746225018310547</v>
       </c>
       <c r="J69">
-        <v>56.57999801635742</v>
+        <v>50.66</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -2017,7 +2002,7 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>13.92119233398438</v>
+        <v>12.98592749023437</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -2031,10 +2016,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>1.526136865234375</v>
+        <v>1.746836993408203</v>
       </c>
       <c r="J71">
-        <v>56.59999847412109</v>
+        <v>50.72</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -2045,7 +2030,7 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>13.95902133789063</v>
+        <v>12.96963637695312</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -2059,10 +2044,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>1.527229974365234</v>
+        <v>1.748063830566406</v>
       </c>
       <c r="J73">
-        <v>56.5</v>
+        <v>50.54</v>
       </c>
     </row>
     <row r="74" spans="7:10">
@@ -2073,7 +2058,7 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>13.98736752929688</v>
+        <v>12.94400966796875</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -2087,10 +2072,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>1.524692034912109</v>
+        <v>1.747414373779297</v>
       </c>
       <c r="J75">
-        <v>56.37999725341797</v>
+        <v>50.86</v>
       </c>
     </row>
     <row r="76" spans="7:10">
@@ -2101,7 +2086,7 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>13.96435458984375</v>
+        <v>12.97493955078125</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -2115,10 +2100,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>1.523923370361328</v>
+        <v>1.746839416503906</v>
       </c>
       <c r="J77">
-        <v>56.65999984741211</v>
+        <v>50.88</v>
       </c>
     </row>
     <row r="78" spans="7:10">
@@ -2129,7 +2114,7 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>13.90313310546875</v>
+        <v>12.9755458984375</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -2143,10 +2128,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>1.524067877197266</v>
+        <v>1.747696826171875</v>
       </c>
       <c r="J79">
-        <v>56.5</v>
+        <v>50.64</v>
       </c>
     </row>
     <row r="80" spans="7:10">
@@ -2157,7 +2142,7 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>13.93853686523438</v>
+        <v>12.97373662109375</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -2171,10 +2156,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>1.524722479248047</v>
+        <v>1.747368365478516</v>
       </c>
       <c r="J81">
-        <v>56.61999893188477</v>
+        <v>50.62</v>
       </c>
     </row>
     <row r="82" spans="7:10">
@@ -2185,37 +2170,9 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>13.93341420898438</v>
+        <v>12.968001171875</v>
       </c>
       <c r="J82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="7:10">
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>41</v>
-      </c>
-      <c r="I83">
-        <v>1.524991296386719</v>
-      </c>
-      <c r="J83">
-        <v>56.57999801635742</v>
-      </c>
-    </row>
-    <row r="84" spans="7:10">
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>41</v>
-      </c>
-      <c r="I84">
-        <v>13.93651000976562</v>
-      </c>
-      <c r="J84">
         <v>0</v>
       </c>
     </row>
@@ -2230,7 +2187,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2289,13 +2246,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.776791394241457</v>
+        <v>5.733146080928567</v>
       </c>
       <c r="D3">
-        <v>4.149510860443115</v>
+        <v>4.256809711456299</v>
       </c>
       <c r="E3">
-        <v>28.38999938964844</v>
+        <v>25.37</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2304,10 +2261,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>2.444014080810547</v>
+        <v>2.714932171630859</v>
       </c>
       <c r="J3">
-        <v>42.86000061035156</v>
+        <v>36.74</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2318,13 +2275,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>3.820457334440898</v>
+        <v>3.874112310662734</v>
       </c>
       <c r="D4">
-        <v>4.082643747329712</v>
+        <v>4.195008754730225</v>
       </c>
       <c r="E4">
-        <v>30.97000122070312</v>
+        <v>25.13</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2333,10 +2290,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>3.065666015625</v>
+        <v>3.130853491210937</v>
       </c>
       <c r="J4">
-        <v>13.92000007629395</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2347,13 +2304,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>3.552721190258739</v>
+        <v>3.596572768371717</v>
       </c>
       <c r="D5">
-        <v>3.849141756693522</v>
+        <v>4.204241275787354</v>
       </c>
       <c r="E5">
-        <v>33.18000030517578</v>
+        <v>26.59</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2362,10 +2319,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>2.401970520019531</v>
+        <v>2.785600207519531</v>
       </c>
       <c r="J5">
-        <v>39.02000045776367</v>
+        <v>31.34</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2376,13 +2333,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>3.407926997518152</v>
+        <v>3.443573890534122</v>
       </c>
       <c r="D6">
-        <v>3.651109139124552</v>
+        <v>3.772930383682251</v>
       </c>
       <c r="E6">
-        <v>35.98999786376953</v>
+        <v>30.62</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2391,10 +2348,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>2.838601477050781</v>
+        <v>3.000382751464844</v>
       </c>
       <c r="J6">
-        <v>22.92000007629395</v>
+        <v>18.92</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2405,13 +2362,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>3.306918636570132</v>
+        <v>3.327391014689893</v>
       </c>
       <c r="D7">
-        <v>3.694041570027669</v>
+        <v>3.813482046127319</v>
       </c>
       <c r="E7">
-        <v>37.09999847412109</v>
+        <v>30.92</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2420,10 +2377,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>2.355912365722656</v>
+        <v>2.760658032226563</v>
       </c>
       <c r="J7">
-        <v>39.89999771118164</v>
+        <v>28.82</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2434,13 +2391,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>3.222489616735195</v>
+        <v>3.214737238082211</v>
       </c>
       <c r="D8">
-        <v>3.819068511327108</v>
+        <v>3.584123611450195</v>
       </c>
       <c r="E8">
-        <v>36.72999954223633</v>
+        <v>34.37</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -2449,10 +2406,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>2.675559716796875</v>
+        <v>2.935248889160156</v>
       </c>
       <c r="J8">
-        <v>26.45999908447266</v>
+        <v>24.36</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2463,13 +2420,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>3.136340998052582</v>
+        <v>3.125452214637689</v>
       </c>
       <c r="D9">
-        <v>3.571885426839193</v>
+        <v>3.506184577941895</v>
       </c>
       <c r="E9">
-        <v>38.04999923706055</v>
+        <v>34.98</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2478,10 +2435,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>2.303582135009766</v>
+        <v>2.585962445068359</v>
       </c>
       <c r="J9">
-        <v>40.05999755859375</v>
+        <v>33.32</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2492,13 +2449,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>3.066771055624737</v>
+        <v>3.052788417951195</v>
       </c>
       <c r="D10">
-        <v>3.510622580846151</v>
+        <v>3.875505924224854</v>
       </c>
       <c r="E10">
-        <v>37.57999801635742</v>
+        <v>30.2</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2507,10 +2464,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>2.521753894042969</v>
+        <v>2.671237084960937</v>
       </c>
       <c r="J10">
-        <v>31.92000007629395</v>
+        <v>27.92</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2521,13 +2478,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>3.008208947453072</v>
+        <v>2.998592288093229</v>
       </c>
       <c r="D11">
-        <v>3.669135173161825</v>
+        <v>3.642157793045044</v>
       </c>
       <c r="E11">
-        <v>36.62999725341797</v>
+        <v>34.66</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2536,10 +2493,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>2.2695888671875</v>
+        <v>2.641843615722656</v>
       </c>
       <c r="J11">
-        <v>40.97999954223633</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2550,13 +2507,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.938847572822881</v>
+        <v>2.931515562850817</v>
       </c>
       <c r="D12">
-        <v>3.544438441594442</v>
+        <v>3.620139122009277</v>
       </c>
       <c r="E12">
-        <v>38.66999816894531</v>
+        <v>34.25</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2565,10 +2522,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>2.466951965332031</v>
+        <v>2.67218974609375</v>
       </c>
       <c r="J12">
-        <v>33.21999740600586</v>
+        <v>30.84</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2579,13 +2536,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>2.882293057635548</v>
+        <v>2.854464488746846</v>
       </c>
       <c r="D13">
-        <v>3.73413880666097</v>
+        <v>3.695164203643799</v>
       </c>
       <c r="E13">
-        <v>37.0099983215332</v>
+        <v>33.43</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2594,10 +2551,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>2.280113043212891</v>
+        <v>2.520066363525391</v>
       </c>
       <c r="J13">
-        <v>39.86000061035156</v>
+        <v>33.58</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2608,13 +2565,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>2.838921050715252</v>
+        <v>2.8005846369583</v>
       </c>
       <c r="D14">
-        <v>3.53554097811381</v>
+        <v>3.543486595153809</v>
       </c>
       <c r="E14">
-        <v>37.58999633789062</v>
+        <v>34.68</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2623,10 +2580,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>2.508332989501953</v>
+        <v>2.508814337158203</v>
       </c>
       <c r="J14">
-        <v>33.59999847412109</v>
+        <v>35.16</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2637,13 +2594,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>2.780208566324498</v>
+        <v>2.896498104112338</v>
       </c>
       <c r="D15">
-        <v>3.7090003490448</v>
+        <v>3.329585075378418</v>
       </c>
       <c r="E15">
-        <v>36.66999816894531</v>
+        <v>37.56</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2652,10 +2609,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>2.186941076660156</v>
+        <v>2.484959088134766</v>
       </c>
       <c r="J15">
-        <v>41.57999801635742</v>
+        <v>32.82</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2666,13 +2623,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>2.829995382122877</v>
+        <v>2.837923703995426</v>
       </c>
       <c r="D16">
-        <v>3.350829760233561</v>
+        <v>3.322948932647705</v>
       </c>
       <c r="E16">
-        <v>41.27999877929688</v>
+        <v>37.66</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2681,10 +2638,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>2.402459814453125</v>
+        <v>2.418519134521484</v>
       </c>
       <c r="J16">
-        <v>34.52000045776367</v>
+        <v>37.14</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2695,13 +2652,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>2.771964224373422</v>
+        <v>2.801058049750539</v>
       </c>
       <c r="D17">
-        <v>3.303117672602335</v>
+        <v>3.336759567260742</v>
       </c>
       <c r="E17">
-        <v>41.09000015258789</v>
+        <v>37.57</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2710,10 +2667,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>2.28131318359375</v>
+        <v>2.606400122070312</v>
       </c>
       <c r="J17">
-        <v>38.55999755859375</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2724,13 +2681,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>2.741240536294332</v>
+        <v>2.771978542868015</v>
       </c>
       <c r="D18">
-        <v>3.303594827651978</v>
+        <v>3.336525917053223</v>
       </c>
       <c r="E18">
-        <v>40.97000122070312</v>
+        <v>37.87</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2739,10 +2696,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>2.395825433349609</v>
+        <v>2.724309075927734</v>
       </c>
       <c r="J18">
-        <v>36.59999847412109</v>
+        <v>30.22</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2753,13 +2710,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>2.716903924942017</v>
+        <v>2.745365919265072</v>
       </c>
       <c r="D19">
-        <v>3.308168888092041</v>
+        <v>3.339882850646973</v>
       </c>
       <c r="E19">
-        <v>41.02999877929688</v>
+        <v>37.78</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2768,10 +2725,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>2.302409515380859</v>
+        <v>2.482352154541016</v>
       </c>
       <c r="J19">
-        <v>37.77999877929688</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2782,13 +2739,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>2.689008232054672</v>
+        <v>2.717085758141712</v>
       </c>
       <c r="D20">
-        <v>3.378519773483276</v>
+        <v>3.367644548416138</v>
       </c>
       <c r="E20">
-        <v>40.68000030517578</v>
+        <v>37.65</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2797,10 +2754,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>2.419743133544922</v>
+        <v>2.500001751708985</v>
       </c>
       <c r="J20">
-        <v>35.47999954223633</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2811,13 +2768,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>2.671315226128431</v>
+        <v>2.68657544017893</v>
       </c>
       <c r="D21">
-        <v>3.363550424575806</v>
+        <v>3.367924928665161</v>
       </c>
       <c r="E21">
-        <v>40.25</v>
+        <v>36.77</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2826,10 +2783,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>2.17122119140625</v>
+        <v>2.510564703369141</v>
       </c>
       <c r="J21">
-        <v>41.2599983215332</v>
+        <v>32.74</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2840,13 +2797,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>2.648556501884771</v>
+        <v>2.773152724831505</v>
       </c>
       <c r="D22">
-        <v>3.389831860860189</v>
+        <v>3.293894052505493</v>
       </c>
       <c r="E22">
-        <v>40.29000091552734</v>
+        <v>38.38</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2855,10 +2812,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>2.421839471435547</v>
+        <v>2.536446368408203</v>
       </c>
       <c r="J22">
-        <v>36.07999801635742</v>
+        <v>35.76</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2869,13 +2826,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>2.713701143497374</v>
+        <v>2.760234028892179</v>
       </c>
       <c r="D23">
-        <v>3.2630934715271</v>
+        <v>3.29806923866272</v>
       </c>
       <c r="E23">
-        <v>41.34000015258789</v>
+        <v>38.17</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2884,10 +2841,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>2.223838549804687</v>
+        <v>2.541196301269531</v>
       </c>
       <c r="J23">
-        <v>40.05999755859375</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2898,13 +2855,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>2.700227762625469</v>
+        <v>2.751738187486092</v>
       </c>
       <c r="D24">
-        <v>3.312564134597778</v>
+        <v>3.312829256057739</v>
       </c>
       <c r="E24">
-        <v>41.09000015258789</v>
+        <v>38.52</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2913,10 +2870,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>2.514317083740234</v>
+        <v>2.567863739013672</v>
       </c>
       <c r="J24">
-        <v>33.95999908447266</v>
+        <v>36.66</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2927,13 +2884,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>2.69214371743241</v>
+        <v>2.738919365722521</v>
       </c>
       <c r="D25">
-        <v>3.319087425867716</v>
+        <v>3.305108070373535</v>
       </c>
       <c r="E25">
-        <v>41.34999847412109</v>
+        <v>38.19</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2942,10 +2899,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>2.243900299072266</v>
+        <v>2.497428088378906</v>
       </c>
       <c r="J25">
-        <v>39.2599983215332</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2956,13 +2913,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>2.689275130992983</v>
+        <v>2.739998659201428</v>
       </c>
       <c r="D26">
-        <v>3.375043392181396</v>
+        <v>3.308729648590088</v>
       </c>
       <c r="E26">
-        <v>41.30999755859375</v>
+        <v>38.15</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2971,10 +2928,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>2.446357122802735</v>
+        <v>2.439245104980469</v>
       </c>
       <c r="J26">
-        <v>35.91999816894531</v>
+        <v>38.86</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2985,13 +2942,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>2.681306726564237</v>
+        <v>2.729297836269953</v>
       </c>
       <c r="D27">
-        <v>3.327934503555298</v>
+        <v>3.309468984603882</v>
       </c>
       <c r="E27">
-        <v>41.09999847412109</v>
+        <v>38.13</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3000,10 +2957,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>2.290122015380859</v>
+        <v>2.359037536621094</v>
       </c>
       <c r="J27">
-        <v>37.21999740600586</v>
+        <v>36.24</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3014,13 +2971,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>2.670521375609607</v>
+        <v>2.761543345662345</v>
       </c>
       <c r="D28">
-        <v>3.307867606480916</v>
+        <v>3.292426586151123</v>
       </c>
       <c r="E28">
-        <v>41</v>
+        <v>38.21</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -3029,10 +2986,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>2.48051083984375</v>
+        <v>2.342604815673828</v>
       </c>
       <c r="J28">
-        <v>36.11999893188477</v>
+        <v>38.88</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3043,13 +3000,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>2.696099017693744</v>
+        <v>2.752216560650716</v>
       </c>
       <c r="D29">
-        <v>3.308444738388062</v>
+        <v>3.296443223953247</v>
       </c>
       <c r="E29">
-        <v>41.16999816894531</v>
+        <v>38.18</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3058,10 +3015,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>2.101954907226562</v>
+        <v>2.347485162353516</v>
       </c>
       <c r="J29">
-        <v>43.65999984741211</v>
+        <v>36.54</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3072,13 +3029,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>2.689986785252889</v>
+        <v>2.751033093022034</v>
       </c>
       <c r="D30">
-        <v>3.33925978342692</v>
+        <v>3.300301074981689</v>
       </c>
       <c r="E30">
-        <v>41.22999954223633</v>
+        <v>38.18</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3087,10 +3044,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>2.272237359619141</v>
+        <v>2.343458557128906</v>
       </c>
       <c r="J30">
-        <v>38.89999771118164</v>
+        <v>38.78</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3101,13 +3058,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>2.691527163110128</v>
+        <v>2.749149379477037</v>
       </c>
       <c r="D31">
-        <v>3.298525889714559</v>
+        <v>3.300558090209961</v>
       </c>
       <c r="E31">
-        <v>41.26999664306641</v>
+        <v>38.31</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3116,10 +3073,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>2.080689086914063</v>
+        <v>2.377912170410156</v>
       </c>
       <c r="J31">
-        <v>43.81999969482422</v>
+        <v>35.34</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3130,13 +3087,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>2.690889414733018</v>
+        <v>2.745743247260035</v>
       </c>
       <c r="D32">
-        <v>3.28478217124939</v>
+        <v>3.300503730773926</v>
       </c>
       <c r="E32">
-        <v>41.29000091552734</v>
+        <v>38.25</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3145,10 +3102,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>2.278866619873047</v>
+        <v>2.336842529296875</v>
       </c>
       <c r="J32">
-        <v>38.36000061035156</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3159,13 +3116,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>2.686341221739606</v>
+        <v>2.746809965741318</v>
       </c>
       <c r="D33">
-        <v>3.30691123008728</v>
+        <v>3.300796747207642</v>
       </c>
       <c r="E33">
-        <v>41.30999755859375</v>
+        <v>38.34999999999999</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3174,10 +3131,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>2.080851672363281</v>
+        <v>2.349155822753906</v>
       </c>
       <c r="J33">
-        <v>43.73999786376953</v>
+        <v>36.32</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3188,13 +3145,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>2.692747147102666</v>
+        <v>2.75206381662757</v>
       </c>
       <c r="D34">
-        <v>3.280583381652832</v>
+        <v>3.301984071731567</v>
       </c>
       <c r="E34">
-        <v>41.26999664306641</v>
+        <v>38.31</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3203,10 +3160,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>2.305683764648438</v>
+        <v>2.350582702636719</v>
       </c>
       <c r="J34">
-        <v>38.20000076293945</v>
+        <v>39.42</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3217,13 +3174,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>2.694110622250937</v>
+        <v>2.750846164416423</v>
       </c>
       <c r="D35">
-        <v>3.28861403465271</v>
+        <v>3.296894550323486</v>
       </c>
       <c r="E35">
-        <v>41.22999954223633</v>
+        <v>38.55</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3232,10 +3189,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>2.093828527832031</v>
+        <v>2.367044738769531</v>
       </c>
       <c r="J35">
-        <v>43.09999847412109</v>
+        <v>35.12</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3246,13 +3203,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>2.690206645950069</v>
+        <v>2.749741336940664</v>
       </c>
       <c r="D36">
-        <v>3.281714757283529</v>
+        <v>3.292409896850586</v>
       </c>
       <c r="E36">
-        <v>41.37999725341797</v>
+        <v>38.16</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3261,10 +3218,10 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>2.284450531005859</v>
+        <v>2.339670556640625</v>
       </c>
       <c r="J36">
-        <v>38.95999908447266</v>
+        <v>40.44</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3275,13 +3232,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>2.694107003328277</v>
+        <v>2.750341174876795</v>
       </c>
       <c r="D37">
-        <v>3.31158185005188</v>
+        <v>3.302233695983887</v>
       </c>
       <c r="E37">
-        <v>41.43000030517578</v>
+        <v>38.35</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3290,10 +3247,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>2.100101062011719</v>
+        <v>2.361760748291016</v>
       </c>
       <c r="J37">
-        <v>43</v>
+        <v>34.26</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3304,13 +3261,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>2.687423008244212</v>
+        <v>2.747343170959338</v>
       </c>
       <c r="D38">
-        <v>3.34358819325765</v>
+        <v>3.298518419265747</v>
       </c>
       <c r="E38">
-        <v>41.33999633789062</v>
+        <v>38.32</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3319,13 +3276,28 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>2.312773529052734</v>
+        <v>2.351276776123047</v>
       </c>
       <c r="J38">
-        <v>38.36000061035156</v>
+        <v>41.04</v>
       </c>
     </row>
     <row r="39" spans="1:10">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>2.747516212210191</v>
+      </c>
+      <c r="D39">
+        <v>3.301470279693604</v>
+      </c>
+      <c r="E39">
+        <v>38.36</v>
+      </c>
       <c r="G39">
         <v>0</v>
       </c>
@@ -3333,13 +3305,28 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>2.14223798828125</v>
+        <v>2.387632733154297</v>
       </c>
       <c r="J39">
-        <v>41.31999969482422</v>
+        <v>34.38</v>
       </c>
     </row>
     <row r="40" spans="1:10">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>2.75138897811417</v>
+      </c>
+      <c r="D40">
+        <v>3.305572032928467</v>
+      </c>
+      <c r="E40">
+        <v>38.33</v>
+      </c>
       <c r="G40">
         <v>1</v>
       </c>
@@ -3347,13 +3334,28 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>2.291949450683594</v>
+        <v>2.365142413330078</v>
       </c>
       <c r="J40">
-        <v>39.18000030517578</v>
+        <v>39.16</v>
       </c>
     </row>
     <row r="41" spans="1:10">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>2.748004900670685</v>
+      </c>
+      <c r="D41">
+        <v>3.301021814346313</v>
+      </c>
+      <c r="E41">
+        <v>38.47</v>
+      </c>
       <c r="G41">
         <v>0</v>
       </c>
@@ -3361,10 +3363,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>2.130956146240234</v>
+        <v>2.332897430419922</v>
       </c>
       <c r="J41">
-        <v>41.86000061035156</v>
+        <v>36.84</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3375,10 +3377,10 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>2.3212904296875</v>
+        <v>2.322881433105469</v>
       </c>
       <c r="J42">
-        <v>38.71999740600586</v>
+        <v>39.92</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3389,10 +3391,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>2.079519812011719</v>
+        <v>2.344000787353516</v>
       </c>
       <c r="J43">
-        <v>43.97999954223633</v>
+        <v>36.54</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -3403,10 +3405,10 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>2.276583288574219</v>
+        <v>2.326708984375</v>
       </c>
       <c r="J44">
-        <v>38.70000076293945</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3417,10 +3419,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>2.082286596679687</v>
+        <v>2.334041320800781</v>
       </c>
       <c r="J45">
-        <v>43.52000045776367</v>
+        <v>36.66</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3431,10 +3433,10 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>2.286818670654297</v>
+        <v>2.332388629150391</v>
       </c>
       <c r="J46">
-        <v>38.65999984741211</v>
+        <v>40.38</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3445,10 +3447,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>2.073659765625</v>
+        <v>2.332595648193359</v>
       </c>
       <c r="J47">
-        <v>43.97999954223633</v>
+        <v>36.68</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3459,10 +3461,10 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>2.278609674072265</v>
+        <v>2.333983160400391</v>
       </c>
       <c r="J48">
-        <v>38.71999740600586</v>
+        <v>39.7</v>
       </c>
     </row>
     <row r="49" spans="7:10">
@@ -3473,10 +3475,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>2.07698232421875</v>
+        <v>2.327929046630859</v>
       </c>
       <c r="J49">
-        <v>43.73999786376953</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="50" spans="7:10">
@@ -3487,10 +3489,10 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>2.279635925292969</v>
+        <v>2.337831561279297</v>
       </c>
       <c r="J50">
-        <v>38.87999725341797</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="51" spans="7:10">
@@ -3501,10 +3503,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>2.084272705078125</v>
+        <v>2.33896557006836</v>
       </c>
       <c r="J51">
-        <v>43.45999908447266</v>
+        <v>35.96</v>
       </c>
     </row>
     <row r="52" spans="7:10">
@@ -3515,10 +3517,10 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>2.286369738769531</v>
+        <v>2.32634833984375</v>
       </c>
       <c r="J52">
-        <v>38.73999786376953</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="53" spans="7:10">
@@ -3529,10 +3531,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>2.087821704101562</v>
+        <v>2.334699230957031</v>
       </c>
       <c r="J53">
-        <v>43.27999877929688</v>
+        <v>36.88</v>
       </c>
     </row>
     <row r="54" spans="7:10">
@@ -3543,10 +3545,10 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>2.279749176025391</v>
+        <v>2.326943927001953</v>
       </c>
       <c r="J54">
-        <v>38.71999740600586</v>
+        <v>39.54</v>
       </c>
     </row>
     <row r="55" spans="7:10">
@@ -3557,10 +3559,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>2.093490716552735</v>
+        <v>2.337672625732422</v>
       </c>
       <c r="J55">
-        <v>43.36000061035156</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="56" spans="7:10">
@@ -3571,10 +3573,10 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>2.275408502197266</v>
+        <v>2.323566613769531</v>
       </c>
       <c r="J56">
-        <v>38.97999954223633</v>
+        <v>39.86</v>
       </c>
     </row>
     <row r="57" spans="7:10">
@@ -3585,10 +3587,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>2.089310803222656</v>
+        <v>2.332228411865235</v>
       </c>
       <c r="J57">
-        <v>43.65999984741211</v>
+        <v>36.78</v>
       </c>
     </row>
     <row r="58" spans="7:10">
@@ -3599,10 +3601,10 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>2.28007671508789</v>
+        <v>2.325306207275391</v>
       </c>
       <c r="J58">
-        <v>38.79999923706055</v>
+        <v>39.58</v>
       </c>
     </row>
     <row r="59" spans="7:10">
@@ -3613,10 +3615,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>2.087829089355469</v>
+        <v>2.332215692138672</v>
       </c>
       <c r="J59">
-        <v>43.59999847412109</v>
+        <v>36.78</v>
       </c>
     </row>
     <row r="60" spans="7:10">
@@ -3627,10 +3629,10 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>2.274808526611328</v>
+        <v>2.322330303955078</v>
       </c>
       <c r="J60">
-        <v>38.93999862670898</v>
+        <v>39.84</v>
       </c>
     </row>
     <row r="61" spans="7:10">
@@ -3641,10 +3643,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>2.081536169433594</v>
+        <v>2.335524298095703</v>
       </c>
       <c r="J61">
-        <v>43.53999710083008</v>
+        <v>36.86</v>
       </c>
     </row>
     <row r="62" spans="7:10">
@@ -3655,10 +3657,10 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>2.273551385498047</v>
+        <v>2.321939093017578</v>
       </c>
       <c r="J62">
-        <v>39.04000091552734</v>
+        <v>39.64</v>
       </c>
     </row>
     <row r="63" spans="7:10">
@@ -3669,10 +3671,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>2.087918444824219</v>
+        <v>2.343106811523437</v>
       </c>
       <c r="J63">
-        <v>43.73999786376953</v>
+        <v>36.54</v>
       </c>
     </row>
     <row r="64" spans="7:10">
@@ -3683,10 +3685,10 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>2.269020556640625</v>
+        <v>2.322274578857422</v>
       </c>
       <c r="J64">
-        <v>38.87999725341797</v>
+        <v>40.16</v>
       </c>
     </row>
     <row r="65" spans="7:10">
@@ -3697,10 +3699,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>2.094142712402344</v>
+        <v>2.329108837890625</v>
       </c>
       <c r="J65">
-        <v>43.39999771118164</v>
+        <v>36.82</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -3711,10 +3713,10 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>2.267943072509766</v>
+        <v>2.329845874023437</v>
       </c>
       <c r="J66">
-        <v>39.13999938964844</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="67" spans="7:10">
@@ -3725,10 +3727,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>2.085685192871094</v>
+        <v>2.335384283447266</v>
       </c>
       <c r="J67">
-        <v>43.43999862670898</v>
+        <v>36.66</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -3739,10 +3741,10 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>2.269872680664062</v>
+        <v>2.324365295410156</v>
       </c>
       <c r="J68">
-        <v>39.02000045776367</v>
+        <v>40.44</v>
       </c>
     </row>
     <row r="69" spans="7:10">
@@ -3753,10 +3755,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>2.078609649658203</v>
+        <v>2.334122338867187</v>
       </c>
       <c r="J69">
-        <v>43.97999954223633</v>
+        <v>36.78</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -3767,10 +3769,10 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>2.271471032714844</v>
+        <v>2.325681579589844</v>
       </c>
       <c r="J70">
-        <v>38.77999877929688</v>
+        <v>39.54</v>
       </c>
     </row>
     <row r="71" spans="7:10">
@@ -3781,10 +3783,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>2.079167340087891</v>
+        <v>2.329296594238281</v>
       </c>
       <c r="J71">
-        <v>43.97999954223633</v>
+        <v>36.74</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -3795,10 +3797,10 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>2.277113909912109</v>
+        <v>2.325498742675781</v>
       </c>
       <c r="J72">
-        <v>38.87999725341797</v>
+        <v>39.96</v>
       </c>
     </row>
     <row r="73" spans="7:10">
@@ -3809,10 +3811,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>2.080688366699219</v>
+        <v>2.333782952880859</v>
       </c>
       <c r="J73">
-        <v>43.89999771118164</v>
+        <v>36.84</v>
       </c>
     </row>
     <row r="74" spans="7:10">
@@ -3823,10 +3825,94 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>2.269484423828125</v>
+        <v>2.324143768310547</v>
       </c>
       <c r="J74">
-        <v>38.77999877929688</v>
+        <v>39.8</v>
+      </c>
+    </row>
+    <row r="75" spans="7:10">
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>37</v>
+      </c>
+      <c r="I75">
+        <v>2.336149084472656</v>
+      </c>
+      <c r="J75">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="76" spans="7:10">
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>37</v>
+      </c>
+      <c r="I76">
+        <v>2.321910260009766</v>
+      </c>
+      <c r="J76">
+        <v>40.12</v>
+      </c>
+    </row>
+    <row r="77" spans="7:10">
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>38</v>
+      </c>
+      <c r="I77">
+        <v>2.329492864990234</v>
+      </c>
+      <c r="J77">
+        <v>36.7</v>
+      </c>
+    </row>
+    <row r="78" spans="7:10">
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>38</v>
+      </c>
+      <c r="I78">
+        <v>2.33872392578125</v>
+      </c>
+      <c r="J78">
+        <v>39.96</v>
+      </c>
+    </row>
+    <row r="79" spans="7:10">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>39</v>
+      </c>
+      <c r="I79">
+        <v>2.334422473144531</v>
+      </c>
+      <c r="J79">
+        <v>36.82</v>
+      </c>
+    </row>
+    <row r="80" spans="7:10">
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>39</v>
+      </c>
+      <c r="I80">
+        <v>2.325617205810547</v>
+      </c>
+      <c r="J80">
+        <v>40.12</v>
       </c>
     </row>
   </sheetData>
